--- a/Code/Results/Cases/Case_0_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_102/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.084434386320654</v>
+        <v>3.476304544167619</v>
       </c>
       <c r="D2">
-        <v>4.93164092878762</v>
+        <v>3.342861255556732</v>
       </c>
       <c r="E2">
-        <v>81.00076579428656</v>
+        <v>40.47176262065683</v>
       </c>
       <c r="F2">
-        <v>21.01252232472337</v>
+        <v>16.7669461497492</v>
       </c>
       <c r="G2">
-        <v>1.944938283335286</v>
+        <v>3.571768659760583</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.13064209981079</v>
+        <v>14.39738836212795</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>108.7982698288456</v>
+        <v>57.91617868534593</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.76004240879307</v>
+        <v>14.76877119249959</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.701648821492689</v>
+        <v>3.334953336422328</v>
       </c>
       <c r="D3">
-        <v>4.469313030899948</v>
+        <v>3.221367391710547</v>
       </c>
       <c r="E3">
-        <v>72.53576591285878</v>
+        <v>37.75138303523279</v>
       </c>
       <c r="F3">
-        <v>18.12840718067783</v>
+        <v>16.95767206342498</v>
       </c>
       <c r="G3">
-        <v>1.966506136138684</v>
+        <v>3.575884284977013</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.90855815233521</v>
+        <v>14.60409137007161</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>98.29651218016187</v>
+        <v>54.35550820080955</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.2579082558725</v>
+        <v>15.04093699823042</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.469682219190482</v>
+        <v>3.244691757843198</v>
       </c>
       <c r="D4">
-        <v>4.208638502489858</v>
+        <v>3.171059348707021</v>
       </c>
       <c r="E4">
-        <v>67.77814769957224</v>
+        <v>35.98041707787855</v>
       </c>
       <c r="F4">
-        <v>16.53481919779105</v>
+        <v>17.09384532706991</v>
       </c>
       <c r="G4">
-        <v>1.978400534906688</v>
+        <v>3.578509361899191</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.67255193115184</v>
+        <v>14.74381313235523</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>92.24901044494848</v>
+        <v>52.04303753748426</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.87988056090608</v>
+        <v>15.22196686562206</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.374539542131999</v>
+        <v>3.207074058257863</v>
       </c>
       <c r="D5">
-        <v>4.105113948433411</v>
+        <v>3.167217141609902</v>
       </c>
       <c r="E5">
-        <v>65.88958767676533</v>
+        <v>35.23326466210144</v>
       </c>
       <c r="F5">
-        <v>15.91233131023745</v>
+        <v>17.15395081477577</v>
       </c>
       <c r="G5">
-        <v>1.983056037909539</v>
+        <v>3.579603990821591</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.18726086430387</v>
+        <v>14.80386814740245</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>89.82335499862553</v>
+        <v>51.06898535093034</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.3417016854175</v>
+        <v>15.29912243925746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.358679298594743</v>
+        <v>3.200778417950994</v>
       </c>
       <c r="D6">
-        <v>4.088030031730411</v>
+        <v>3.166594312008303</v>
       </c>
       <c r="E6">
-        <v>65.57792665067774</v>
+        <v>35.10765763722933</v>
       </c>
       <c r="F6">
-        <v>15.8102758047591</v>
+        <v>17.16420472170481</v>
       </c>
       <c r="G6">
-        <v>1.983820238018198</v>
+        <v>3.579787262867508</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.10753577701265</v>
+        <v>14.81402559352947</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>89.42177849273975</v>
+        <v>50.90533207952289</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.25345108659727</v>
+        <v>15.31213523491345</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.468402770325311</v>
+        <v>3.244187761188732</v>
       </c>
       <c r="D7">
-        <v>4.207234124513691</v>
+        <v>3.171006515235379</v>
       </c>
       <c r="E7">
-        <v>67.75252735670838</v>
+        <v>35.97044405549916</v>
       </c>
       <c r="F7">
-        <v>16.52633040924864</v>
+        <v>17.09463748618448</v>
       </c>
       <c r="G7">
-        <v>1.978463965735499</v>
+        <v>3.578524023376547</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.66594482908257</v>
+        <v>14.74461056604613</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>92.21619485222664</v>
+        <v>52.03002940477588</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.87254216284511</v>
+        <v>15.22299385656659</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.950578915660077</v>
+        <v>3.428307985960186</v>
       </c>
       <c r="D8">
-        <v>4.764654614362255</v>
+        <v>3.301583366345975</v>
       </c>
       <c r="E8">
-        <v>77.93740616966967</v>
+        <v>39.55456471346349</v>
       </c>
       <c r="F8">
-        <v>19.96566234688203</v>
+        <v>16.82864160109181</v>
       </c>
       <c r="G8">
-        <v>1.952783547441762</v>
+        <v>3.573167515019288</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.32563493584725</v>
+        <v>14.46593865959478</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>105.0397283884646</v>
+        <v>56.71465714749222</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.84999575946198</v>
+        <v>14.85965323867943</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.950578915660077</v>
+        <v>3.760439405120442</v>
       </c>
       <c r="D9">
-        <v>4.764654614362255</v>
+        <v>3.587951167072841</v>
       </c>
       <c r="E9">
-        <v>77.93740616966967</v>
+        <v>45.79201205668925</v>
       </c>
       <c r="F9">
-        <v>19.96566234688203</v>
+        <v>16.46649431085119</v>
       </c>
       <c r="G9">
-        <v>1.952783547441762</v>
+        <v>3.563430537808864</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.32563493584725</v>
+        <v>14.02589357867655</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>105.0397283884646</v>
+        <v>64.90092857163805</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.84999575946198</v>
+        <v>14.26315838900036</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.950578915660077</v>
+        <v>3.985299899419243</v>
       </c>
       <c r="D10">
-        <v>4.764654614362255</v>
+        <v>3.783070663488931</v>
       </c>
       <c r="E10">
-        <v>77.93740616966967</v>
+        <v>49.90317859093299</v>
       </c>
       <c r="F10">
-        <v>19.96566234688203</v>
+        <v>16.30887888768651</v>
       </c>
       <c r="G10">
-        <v>1.952783547441762</v>
+        <v>3.556728203287531</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.32563493584725</v>
+        <v>13.77442895059257</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>105.0397283884646</v>
+        <v>70.31005263774509</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.84999575946198</v>
+        <v>13.90392484520304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.950578915660077</v>
+        <v>4.08319656546668</v>
       </c>
       <c r="D11">
-        <v>4.764654614362255</v>
+        <v>3.868405638425283</v>
       </c>
       <c r="E11">
-        <v>77.93740616966967</v>
+        <v>51.67346889593462</v>
       </c>
       <c r="F11">
-        <v>19.96566234688203</v>
+        <v>16.26311145027135</v>
       </c>
       <c r="G11">
-        <v>1.952783547441762</v>
+        <v>3.553773390399056</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.32563493584725</v>
+        <v>13.67722456640414</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>105.0397283884646</v>
+        <v>72.64094891128616</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.84999575946198</v>
+        <v>13.7596413062023</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.950578915660077</v>
+        <v>4.119620374759179</v>
       </c>
       <c r="D12">
-        <v>4.764654614362255</v>
+        <v>3.900220695137537</v>
       </c>
       <c r="E12">
-        <v>77.93740616966967</v>
+        <v>52.32966520989347</v>
       </c>
       <c r="F12">
-        <v>19.96566234688203</v>
+        <v>16.24970087712955</v>
       </c>
       <c r="G12">
-        <v>1.952783547441762</v>
+        <v>3.5526676925367</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.32563493584725</v>
+        <v>13.64302550826068</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>105.0397283884646</v>
+        <v>73.50509775027406</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.84999575946198</v>
+        <v>13.70793473025431</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.950578915660077</v>
+        <v>4.111804873721499</v>
       </c>
       <c r="D13">
-        <v>4.764654614362255</v>
+        <v>3.893391052122997</v>
       </c>
       <c r="E13">
-        <v>77.93740616966967</v>
+        <v>52.18896889314987</v>
       </c>
       <c r="F13">
-        <v>19.96566234688203</v>
+        <v>16.252411732261</v>
       </c>
       <c r="G13">
-        <v>1.952783547441762</v>
+        <v>3.552905241216475</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.32563493584725</v>
+        <v>13.65027254989014</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>105.0397283884646</v>
+        <v>73.31980858910056</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.84999575946198</v>
+        <v>13.71893736715893</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.950578915660077</v>
+        <v>4.08620623119143</v>
       </c>
       <c r="D14">
-        <v>4.764654614362255</v>
+        <v>3.871033123324953</v>
       </c>
       <c r="E14">
-        <v>77.93740616966967</v>
+        <v>51.72773751985636</v>
       </c>
       <c r="F14">
-        <v>19.96566234688203</v>
+        <v>16.26192850511949</v>
       </c>
       <c r="G14">
-        <v>1.952783547441762</v>
+        <v>3.553682160730086</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.32563493584725</v>
+        <v>13.67435786967575</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>105.0397283884646</v>
+        <v>72.71241303992181</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.84999575946198</v>
+        <v>13.75532758009622</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.950578915660077</v>
+        <v>4.070441579865666</v>
       </c>
       <c r="D15">
-        <v>4.764654614362255</v>
+        <v>3.857273038284782</v>
       </c>
       <c r="E15">
-        <v>77.93740616966967</v>
+        <v>51.44337985050839</v>
       </c>
       <c r="F15">
-        <v>19.96566234688203</v>
+        <v>16.26827395773</v>
       </c>
       <c r="G15">
-        <v>1.952783547441762</v>
+        <v>3.554159759323384</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.32563493584725</v>
+        <v>13.68945492451533</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>105.0397283884646</v>
+        <v>72.33795971066056</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.84999575946198</v>
+        <v>13.77800476849579</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.950578915660077</v>
+        <v>3.978812296516062</v>
       </c>
       <c r="D16">
-        <v>4.764654614362255</v>
+        <v>3.777424253193506</v>
       </c>
       <c r="E16">
-        <v>77.93740616966967</v>
+        <v>49.78549194973996</v>
       </c>
       <c r="F16">
-        <v>19.96566234688203</v>
+        <v>16.31240822538049</v>
       </c>
       <c r="G16">
-        <v>1.952783547441762</v>
+        <v>3.556923175121765</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.32563493584725</v>
+        <v>13.78113909350044</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>105.0397283884646</v>
+        <v>70.1551243486163</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.84999575946198</v>
+        <v>13.91375419320501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.950578915660077</v>
+        <v>3.921463218154494</v>
       </c>
       <c r="D17">
-        <v>4.764654614362255</v>
+        <v>3.727556622303853</v>
       </c>
       <c r="E17">
-        <v>77.93740616966967</v>
+        <v>48.74297915822704</v>
       </c>
       <c r="F17">
-        <v>19.96566234688203</v>
+        <v>16.34626308778967</v>
       </c>
       <c r="G17">
-        <v>1.952783547441762</v>
+        <v>3.558642331957822</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.32563493584725</v>
+        <v>13.84188378111359</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>105.0397283884646</v>
+        <v>68.78289284747197</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.84999575946198</v>
+        <v>14.00205664307449</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.950578915660077</v>
+        <v>3.888064740245451</v>
       </c>
       <c r="D18">
-        <v>4.764654614362255</v>
+        <v>3.69855188417306</v>
       </c>
       <c r="E18">
-        <v>77.93740616966967</v>
+        <v>48.13393857097529</v>
       </c>
       <c r="F18">
-        <v>19.96566234688203</v>
+        <v>16.36816523261235</v>
       </c>
       <c r="G18">
-        <v>1.952783547441762</v>
+        <v>3.559640023207515</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.32563493584725</v>
+        <v>13.87843176859088</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>105.0397283884646</v>
+        <v>67.98139961853012</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.84999575946198</v>
+        <v>14.05463543290603</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.950578915660077</v>
+        <v>3.87668622070631</v>
       </c>
       <c r="D19">
-        <v>4.764654614362255</v>
+        <v>3.688676284065928</v>
       </c>
       <c r="E19">
-        <v>77.93740616966967</v>
+        <v>47.92610514571452</v>
       </c>
       <c r="F19">
-        <v>19.96566234688203</v>
+        <v>16.37599230517209</v>
       </c>
       <c r="G19">
-        <v>1.952783547441762</v>
+        <v>3.559979358184159</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.32563493584725</v>
+        <v>13.89107853214795</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>105.0397283884646</v>
+        <v>67.70792454204363</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.84999575946198</v>
+        <v>14.07273978558993</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.950578915660077</v>
+        <v>3.927610973026165</v>
       </c>
       <c r="D20">
-        <v>4.764654614362255</v>
+        <v>3.732898518989707</v>
       </c>
       <c r="E20">
-        <v>77.93740616966967</v>
+        <v>48.85492945115784</v>
       </c>
       <c r="F20">
-        <v>19.96566234688203</v>
+        <v>16.34240630752585</v>
       </c>
       <c r="G20">
-        <v>1.952783547441762</v>
+        <v>3.558458408145516</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.32563493584725</v>
+        <v>13.83524986496313</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>105.0397283884646</v>
+        <v>68.93023316801961</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.84999575946198</v>
+        <v>13.99247022138893</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.950578915660077</v>
+        <v>4.093742857435595</v>
       </c>
       <c r="D21">
-        <v>4.764654614362255</v>
+        <v>3.877613787449467</v>
       </c>
       <c r="E21">
-        <v>77.93740616966967</v>
+        <v>51.86359548839178</v>
       </c>
       <c r="F21">
-        <v>19.96566234688203</v>
+        <v>16.25902529924958</v>
       </c>
       <c r="G21">
-        <v>1.952783547441762</v>
+        <v>3.553453604229646</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.32563493584725</v>
+        <v>13.66721146396436</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>105.0397283884646</v>
+        <v>72.89132096063811</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.84999575946198</v>
+        <v>13.74455787982243</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.950578915660077</v>
+        <v>4.198540085115629</v>
       </c>
       <c r="D22">
-        <v>4.764654614362255</v>
+        <v>3.969280747956073</v>
       </c>
       <c r="E22">
-        <v>77.93740616966967</v>
+        <v>53.74740705571445</v>
       </c>
       <c r="F22">
-        <v>19.96566234688203</v>
+        <v>16.22746711066646</v>
       </c>
       <c r="G22">
-        <v>1.952783547441762</v>
+        <v>3.550259609969122</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.32563493584725</v>
+        <v>13.57266970209716</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>105.0397283884646</v>
+        <v>75.37230562142062</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.84999575946198</v>
+        <v>13.59970452162914</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.950578915660077</v>
+        <v>4.142958100137584</v>
       </c>
       <c r="D23">
-        <v>4.764654614362255</v>
+        <v>3.920624593256936</v>
       </c>
       <c r="E23">
-        <v>77.93740616966967</v>
+        <v>52.74946791505121</v>
       </c>
       <c r="F23">
-        <v>19.96566234688203</v>
+        <v>16.24215006034431</v>
       </c>
       <c r="G23">
-        <v>1.952783547441762</v>
+        <v>3.551957371315405</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.32563493584725</v>
+        <v>13.621683353439</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>105.0397283884646</v>
+        <v>74.05796939377237</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.84999575946198</v>
+        <v>13.67538233196495</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.950578915660077</v>
+        <v>3.924832904101109</v>
       </c>
       <c r="D24">
-        <v>4.764654614362255</v>
+        <v>3.730484490945673</v>
       </c>
       <c r="E24">
-        <v>77.93740616966967</v>
+        <v>48.80434690817094</v>
       </c>
       <c r="F24">
-        <v>19.96566234688203</v>
+        <v>16.34414237699092</v>
       </c>
       <c r="G24">
-        <v>1.952783547441762</v>
+        <v>3.558541531032786</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.32563493584725</v>
+        <v>13.83824400720335</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>105.0397283884646</v>
+        <v>68.86365980087406</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.84999575946198</v>
+        <v>13.99679861041997</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.950578915660077</v>
+        <v>3.673859722901696</v>
       </c>
       <c r="D25">
-        <v>4.764654614362255</v>
+        <v>3.513116742077064</v>
       </c>
       <c r="E25">
-        <v>77.93740616966967</v>
+        <v>44.18820805263049</v>
       </c>
       <c r="F25">
-        <v>19.96566234688203</v>
+        <v>16.54623268412135</v>
       </c>
       <c r="G25">
-        <v>1.952783547441762</v>
+        <v>3.565984152374167</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.32563493584725</v>
+        <v>14.1328446843305</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>105.0397283884646</v>
+        <v>62.79307609995573</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.84999575946198</v>
+        <v>14.41128713125531</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_102/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.476304544167619</v>
+        <v>5.084434386320721</v>
       </c>
       <c r="D2">
-        <v>3.342861255556732</v>
+        <v>4.931640928787676</v>
       </c>
       <c r="E2">
-        <v>40.47176262065683</v>
+        <v>81.00076579428648</v>
       </c>
       <c r="F2">
-        <v>16.7669461497492</v>
+        <v>21.01252232472312</v>
       </c>
       <c r="G2">
-        <v>3.571768659760583</v>
+        <v>1.944938283335286</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.39738836212795</v>
+        <v>16.13064209981061</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>57.91617868534593</v>
+        <v>108.7982698288454</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.76877119249959</v>
+        <v>16.76004240879289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.334953336422328</v>
+        <v>4.701648821492705</v>
       </c>
       <c r="D3">
-        <v>3.221367391710547</v>
+        <v>4.469313030899948</v>
       </c>
       <c r="E3">
-        <v>37.75138303523279</v>
+        <v>72.53576591285874</v>
       </c>
       <c r="F3">
-        <v>16.95767206342498</v>
+        <v>18.12840718067783</v>
       </c>
       <c r="G3">
-        <v>3.575884284977013</v>
+        <v>1.966506136138684</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.60409137007161</v>
+        <v>13.90855815233521</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>54.35550820080955</v>
+        <v>98.29651218016184</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.04093699823042</v>
+        <v>14.2579082558725</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.244691757843198</v>
+        <v>4.469682219190511</v>
       </c>
       <c r="D4">
-        <v>3.171059348707021</v>
+        <v>4.208638502489875</v>
       </c>
       <c r="E4">
-        <v>35.98041707787855</v>
+        <v>67.77814769957243</v>
       </c>
       <c r="F4">
-        <v>17.09384532706991</v>
+        <v>16.534819197791</v>
       </c>
       <c r="G4">
-        <v>3.578509361899191</v>
+        <v>1.978400534906822</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.74381313235523</v>
+        <v>12.67255193115182</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>52.04303753748426</v>
+        <v>92.24901044494862</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.22196686562206</v>
+        <v>12.87988056090602</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.207074058257863</v>
+        <v>4.37453954213183</v>
       </c>
       <c r="D5">
-        <v>3.167217141609902</v>
+        <v>4.105113948433415</v>
       </c>
       <c r="E5">
-        <v>35.23326466210144</v>
+        <v>65.88958767676544</v>
       </c>
       <c r="F5">
-        <v>17.15395081477577</v>
+        <v>15.91233131023758</v>
       </c>
       <c r="G5">
-        <v>3.579603990821591</v>
+        <v>1.983056037909671</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.80386814740245</v>
+        <v>12.18726086430399</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>51.06898535093034</v>
+        <v>89.82335499862566</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.29912243925746</v>
+        <v>12.34170168541758</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.200778417950994</v>
+        <v>4.358679298594804</v>
       </c>
       <c r="D6">
-        <v>3.166594312008303</v>
+        <v>4.08803003173041</v>
       </c>
       <c r="E6">
-        <v>35.10765763722933</v>
+        <v>65.57792665067761</v>
       </c>
       <c r="F6">
-        <v>17.16420472170481</v>
+        <v>15.81027580475929</v>
       </c>
       <c r="G6">
-        <v>3.579787262867508</v>
+        <v>1.983820238017796</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.81402559352947</v>
+        <v>12.10753577701276</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>50.90533207952289</v>
+        <v>89.42177849273973</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.31213523491345</v>
+        <v>12.25345108659744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.244187761188732</v>
+        <v>4.468402770325313</v>
       </c>
       <c r="D7">
-        <v>3.171006515235379</v>
+        <v>4.207234124513666</v>
       </c>
       <c r="E7">
-        <v>35.97044405549916</v>
+        <v>67.7525273567084</v>
       </c>
       <c r="F7">
-        <v>17.09463748618448</v>
+        <v>16.52633040924856</v>
       </c>
       <c r="G7">
-        <v>3.578524023376547</v>
+        <v>1.978463965735231</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.74461056604613</v>
+        <v>12.66594482908247</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>52.03002940477588</v>
+        <v>92.21619485222669</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.22299385656659</v>
+        <v>12.872542162845</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.428307985960186</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D8">
-        <v>3.301583366345975</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E8">
-        <v>39.55456471346349</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F8">
-        <v>16.82864160109181</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G8">
-        <v>3.573167515019288</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.46593865959478</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>56.71465714749222</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.85965323867943</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.760439405120442</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D9">
-        <v>3.587951167072841</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E9">
-        <v>45.79201205668925</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F9">
-        <v>16.46649431085119</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G9">
-        <v>3.563430537808864</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.02589357867655</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>64.90092857163805</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.26315838900036</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.985299899419243</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D10">
-        <v>3.783070663488931</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E10">
-        <v>49.90317859093299</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F10">
-        <v>16.30887888768651</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G10">
-        <v>3.556728203287531</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.77442895059257</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>70.31005263774509</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.90392484520304</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.08319656546668</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D11">
-        <v>3.868405638425283</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E11">
-        <v>51.67346889593462</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F11">
-        <v>16.26311145027135</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G11">
-        <v>3.553773390399056</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.67722456640414</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>72.64094891128616</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.7596413062023</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.119620374759179</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D12">
-        <v>3.900220695137537</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E12">
-        <v>52.32966520989347</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F12">
-        <v>16.24970087712955</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G12">
-        <v>3.5526676925367</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.64302550826068</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>73.50509775027406</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.70793473025431</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.111804873721499</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D13">
-        <v>3.893391052122997</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E13">
-        <v>52.18896889314987</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F13">
-        <v>16.252411732261</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G13">
-        <v>3.552905241216475</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.65027254989014</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>73.31980858910056</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.71893736715893</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.08620623119143</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D14">
-        <v>3.871033123324953</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E14">
-        <v>51.72773751985636</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F14">
-        <v>16.26192850511949</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G14">
-        <v>3.553682160730086</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.67435786967575</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>72.71241303992181</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.75532758009622</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.070441579865666</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D15">
-        <v>3.857273038284782</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E15">
-        <v>51.44337985050839</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F15">
-        <v>16.26827395773</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G15">
-        <v>3.554159759323384</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.68945492451533</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>72.33795971066056</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.77800476849579</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.978812296516062</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D16">
-        <v>3.777424253193506</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E16">
-        <v>49.78549194973996</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F16">
-        <v>16.31240822538049</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G16">
-        <v>3.556923175121765</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.78113909350044</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.1551243486163</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.91375419320501</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.921463218154494</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D17">
-        <v>3.727556622303853</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E17">
-        <v>48.74297915822704</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F17">
-        <v>16.34626308778967</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G17">
-        <v>3.558642331957822</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.84188378111359</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>68.78289284747197</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.00205664307449</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.888064740245451</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D18">
-        <v>3.69855188417306</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E18">
-        <v>48.13393857097529</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F18">
-        <v>16.36816523261235</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G18">
-        <v>3.559640023207515</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.87843176859088</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>67.98139961853012</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.05463543290603</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.87668622070631</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D19">
-        <v>3.688676284065928</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E19">
-        <v>47.92610514571452</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F19">
-        <v>16.37599230517209</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G19">
-        <v>3.559979358184159</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.89107853214795</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>67.70792454204363</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.07273978558993</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.927610973026165</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D20">
-        <v>3.732898518989707</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E20">
-        <v>48.85492945115784</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F20">
-        <v>16.34240630752585</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G20">
-        <v>3.558458408145516</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.83524986496313</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>68.93023316801961</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.99247022138893</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.093742857435595</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D21">
-        <v>3.877613787449467</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E21">
-        <v>51.86359548839178</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F21">
-        <v>16.25902529924958</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G21">
-        <v>3.553453604229646</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.66721146396436</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>72.89132096063811</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.74455787982243</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.198540085115629</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D22">
-        <v>3.969280747956073</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E22">
-        <v>53.74740705571445</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F22">
-        <v>16.22746711066646</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G22">
-        <v>3.550259609969122</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.57266970209716</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.37230562142062</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.59970452162914</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.142958100137584</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D23">
-        <v>3.920624593256936</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E23">
-        <v>52.74946791505121</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F23">
-        <v>16.24215006034431</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G23">
-        <v>3.551957371315405</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.621683353439</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.05796939377237</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.67538233196495</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.924832904101109</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D24">
-        <v>3.730484490945673</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E24">
-        <v>48.80434690817094</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F24">
-        <v>16.34414237699092</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G24">
-        <v>3.558541531032786</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.83824400720335</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>68.86365980087406</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.99679861041997</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.673859722901696</v>
+        <v>4.950578915660091</v>
       </c>
       <c r="D25">
-        <v>3.513116742077064</v>
+        <v>4.764654614362132</v>
       </c>
       <c r="E25">
-        <v>44.18820805263049</v>
+        <v>77.93740616966987</v>
       </c>
       <c r="F25">
-        <v>16.54623268412135</v>
+        <v>19.96566234688197</v>
       </c>
       <c r="G25">
-        <v>3.565984152374167</v>
+        <v>1.952783547441765</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.1328446843305</v>
+        <v>15.32563493584718</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>62.79307609995573</v>
+        <v>105.0397283884649</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.41128713125531</v>
+        <v>15.84999575946186</v>
       </c>
     </row>
   </sheetData>
